--- a/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>165520</t>
+          <t>110025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
+          <t>易方达资源行业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>9.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4324</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>110025</t>
+          <t>002095</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达资源行业混合</t>
+          <t>博时新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.03</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2454</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007674</t>
+          <t>165520</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信产业升级股票A</t>
+          <t>中信保诚中证800 有色指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007675</t>
+          <t>001719</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信产业升级股票C</t>
+          <t>工银瑞信国家战略主题股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001719</t>
+          <t>002096</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信国家战略主题股票</t>
+          <t>博时新收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002095</t>
+          <t>007674</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合A</t>
+          <t>工银瑞信产业升级股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>63.71</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002096</t>
+          <t>007675</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合C</t>
+          <t>工银瑞信产业升级股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>63.71</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004205</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方支柱产业灵活配置混合</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2955</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>001623</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>兴业国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -800,15 +910,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>95.94</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>7.86</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001623</t>
+          <t>004205</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴业国企改革灵活配置混合</t>
+          <t>东方支柱产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.01</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0797</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4731</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.37</v>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.68</v>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.64</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1875,7 +1876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,17 +1887,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -1922,14 +1965,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.37</v>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>42.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1938,14 +2003,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.68</v>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1954,14 +2041,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.64</v>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1970,13 +2079,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2350,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,17 +2362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2381,14 +2402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.51</v>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2397,14 +2440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.28</v>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2413,14 +2478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.37</v>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2429,14 +2516,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.68</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="6">
@@ -2445,14 +2654,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.64</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="7">
@@ -2461,13 +2670,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600362-江西铜业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.51</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.68</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.64</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.06</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,7 +1544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1489,7 +1752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1811,7 +2074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2171,7 +2434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2379,7 +2642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
